--- a/data/evaluation/evaluation_North_Autumn_Cucumbers.xlsx
+++ b/data/evaluation/evaluation_North_Autumn_Cucumbers.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>851.1104001937779</v>
+        <v>845.5442907712855</v>
       </c>
       <c r="C3" t="n">
-        <v>1780151.303909186</v>
+        <v>1770541.813570497</v>
       </c>
       <c r="D3" t="n">
-        <v>1334.223108745005</v>
+        <v>1330.617079993526</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0004450773607911351</v>
+        <v>0.005840805999698051</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>845.9883879314596</v>
+        <v>849.6451222625483</v>
       </c>
       <c r="C4" t="n">
-        <v>1764257.7192104</v>
+        <v>1764903.539601683</v>
       </c>
       <c r="D4" t="n">
-        <v>1328.253635120341</v>
+        <v>1328.49672171281</v>
       </c>
       <c r="E4" t="n">
-        <v>0.009369324861083772</v>
+        <v>0.009006696723896979</v>
       </c>
     </row>
     <row r="5">
